--- a/lect10/sample_us.xlsx
+++ b/lect10/sample_us.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i.pile/DPO_2020/lect9/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i.pile/Documents/GitHub/DPO_Python-2021-2022/lect10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D16609-339A-EF4F-B383-271F5DC87A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E661EA3-5C08-BA46-8459-D3E046218298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_us" sheetId="1" r:id="rId1"/>
@@ -1229,9 +1229,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1589,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3909,12 +3912,10 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50">
-        <v>32866903</v>
-      </c>
+      <c r="A50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s">
         <v>237</v>
       </c>
@@ -3961,6 +3962,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A50:B50"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>